--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB3E2FA-60CC-4919-BED9-04E57E069498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A79F4F-6809-4017-B585-A8073E191316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
   <si>
     <t>notion id</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>Số tháng</t>
-  </si>
-  <si>
-    <t>Phụ cấp</t>
   </si>
   <si>
     <t>Nhóm dịch vụ</t>
@@ -863,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,13 +886,12 @@
     <col min="15" max="15" width="9.453125" customWidth="1"/>
     <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.36328125" customWidth="1"/>
-    <col min="19" max="19" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,20 +943,17 @@
       <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
-        <v>134</v>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1015,11 +1008,8 @@
         <f ca="1">N2+P2</f>
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1074,11 +1064,8 @@
         <f t="shared" ref="Q3:Q27" ca="1" si="2">N3+P3</f>
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1118,11 +1105,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1174,14 +1158,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>7840000</v>
       </c>
-      <c r="R5">
-        <v>1000000</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="R5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1224,23 +1205,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>11500000</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="R6" s="2">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="S6" s="2">
+        <f t="shared" ref="S6:T7" si="3">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="T6" s="2">
-        <f t="shared" ref="T6:U7" si="3">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U6" s="2">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1283,23 +1261,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>9270000</v>
       </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="R7" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S7" s="2">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="T7" s="2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U7" s="2">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1342,19 +1317,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>28750000</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8" s="2">
         <f>10/25</f>
         <v>0.4</v>
       </c>
-      <c r="U8" s="2">
+      <c r="T8" s="2">
         <f>15/25</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1403,14 +1375,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>9810000</v>
       </c>
-      <c r="R9">
-        <v>1000000</v>
-      </c>
-      <c r="U9" s="2">
+      <c r="T9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1459,14 +1428,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>4500000</v>
       </c>
-      <c r="R10">
-        <v>1000000</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="R10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1515,23 +1481,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>8000000</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="R11" s="2">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="T11" s="2">
+      <c r="S11" s="2">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="U11" s="2">
+      <c r="T11" s="2">
         <f>3/8</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1580,14 +1543,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>5665000</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="T12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1627,11 +1587,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1680,14 +1637,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8480000</v>
       </c>
-      <c r="R14">
-        <v>1000000</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="S14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1736,14 +1690,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>4000000</v>
       </c>
-      <c r="R15">
-        <v>1000000</v>
-      </c>
-      <c r="T15" s="2">
+      <c r="S15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1792,14 +1743,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>4120000</v>
       </c>
-      <c r="R16">
-        <v>1000000</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="T16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -1842,14 +1790,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="R17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -1895,14 +1840,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="R18">
-        <v>1000000</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="R18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -1951,14 +1893,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="R19">
-        <v>1000000</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="S19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2001,23 +1940,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>8240000</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
+      <c r="R20" s="2">
         <f>2/8</f>
         <v>0.25</v>
+      </c>
+      <c r="S20" s="2">
+        <f>3/8</f>
+        <v>0.375</v>
       </c>
       <c r="T20" s="2">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="U20" s="2">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -2054,11 +1990,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -2092,14 +2025,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>6000000</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
+      <c r="R22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2148,14 +2078,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>5000000</v>
       </c>
-      <c r="R23">
-        <v>1000000</v>
-      </c>
-      <c r="T23" s="2">
+      <c r="S23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2192,11 +2119,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2245,14 +2169,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="T25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -2301,11 +2222,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -2345,10 +2263,7 @@
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
+      <c r="S27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2361,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D194953-9D63-4E72-B6A9-71562AC783DD}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -2376,66 +2291,66 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2494,7 +2409,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -2553,7 +2468,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2612,7 +2527,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>7.0000000000000007E-2</v>
@@ -2671,7 +2586,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -2718,7 +2633,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -2777,7 +2692,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -2824,7 +2739,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -2883,7 +2798,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A79F4F-6809-4017-B585-A8073E191316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861ACA6-AC13-4B10-8274-1B13AE859D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
     <sheet name="Chiết khấu" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lương cơ bản'!$A$1:$U$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>notion id</t>
   </si>
@@ -77,33 +80,12 @@
     <t>Phân cấp</t>
   </si>
   <si>
-    <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
-    <t>Đỗ Tiến Hải</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0386756091</t>
-  </si>
-  <si>
-    <t>hai.mda01@gmail.com</t>
-  </si>
-  <si>
-    <t>2001-11-02</t>
-  </si>
-  <si>
     <t>Kỹ thuật viên</t>
   </si>
   <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
     <t>CẦN THƠ</t>
   </si>
   <si>
@@ -113,30 +95,12 @@
     <t>Chính thức</t>
   </si>
   <si>
-    <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Quang</t>
-  </si>
-  <si>
-    <t>0326665814</t>
-  </si>
-  <si>
-    <t>manager.clozhcraft@gmail.com</t>
-  </si>
-  <si>
-    <t>2001-08-23</t>
-  </si>
-  <si>
     <t>Quản lý vận hành</t>
   </si>
   <si>
     <t>2024-03-01</t>
   </si>
   <si>
-    <t>Quản trị cấp trung</t>
-  </si>
-  <si>
     <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
   </si>
   <si>
@@ -522,6 +486,15 @@
   </si>
   <si>
     <t>Đại phẫu</t>
+  </si>
+  <si>
+    <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
+  </si>
+  <si>
+    <t>Cô Na giúp việc</t>
+  </si>
+  <si>
+    <t>Phụ cấp</t>
   </si>
 </sst>
 </file>
@@ -569,9 +542,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -860,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,12 +858,12 @@
     <col min="15" max="15" width="9.453125" customWidth="1"/>
     <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -932,266 +904,281 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O25" ca="1" si="0">IF(J2="", 0,DATEDIF(J2, TODAY(), "m"))</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P25" ca="1" si="1">N2*0.03*ROUNDDOWN(O2/6, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q25" ca="1" si="2">N2+P2</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f ca="1">IF(J2="", 0,DATEDIF(J2, TODAY(), "m"))</f>
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <f ca="1">N2*0.03*ROUNDDOWN(O2/6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f ca="1">N2+P2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O27" ca="1" si="0">IF(J3="", 0,DATEDIF(J3, TODAY(), "m"))</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P27" ca="1" si="1">N3*0.03*ROUNDDOWN(O3/6, 0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>960000</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q27" ca="1" si="2">N3+P3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>8960000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
       <c r="N4">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>11500000</v>
+      </c>
+      <c r="R4" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:T5" si="3">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
-        <v>840000</v>
+        <v>270000</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="2"/>
-        <v>7840000</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>9270000</v>
+      </c>
+      <c r="R5" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S5" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N6">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
@@ -1199,279 +1186,289 @@
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>11500000</v>
-      </c>
-      <c r="R6" s="2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" ref="S6:T7" si="3">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>46000000</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>9000000</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="1"/>
-        <v>270000</v>
+        <v>810000</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="2"/>
-        <v>9270000</v>
-      </c>
-      <c r="R7" s="2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S7" s="2">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>9810000</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>25000000</v>
+        <v>4500000</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="1"/>
-        <v>3750000</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="2"/>
-        <v>28750000</v>
-      </c>
-      <c r="S8" s="2">
-        <f>10/25</f>
-        <v>0.4</v>
-      </c>
-      <c r="T8" s="2">
-        <f>15/25</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>4500000</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>9000000</v>
+        <v>8000000</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>810000</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="2"/>
-        <v>9810000</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+        <v>8000000</v>
+      </c>
+      <c r="R9" s="1">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="S9" s="1">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="T9" s="1">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>4500000</v>
+        <v>5500000</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>165000</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="2"/>
-        <v>4500000</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+        <v>5665000</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
@@ -1479,630 +1476,666 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12">
         <v>8000000</v>
       </c>
-      <c r="R11" s="2">
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="1"/>
+        <v>480000</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="2"/>
+        <v>8480000</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>4000000</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="2"/>
+        <v>4000000</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>4000000</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="2"/>
+        <v>4120000</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>6500000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="1"/>
+        <v>195000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="2"/>
+        <v>6695000</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>3000000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3000000</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>3000000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="2"/>
+        <v>3000000</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>8000000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="2"/>
+        <v>8240000</v>
+      </c>
+      <c r="R18" s="1">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="S18" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="S11" s="2">
-        <f>2/8</f>
-        <v>0.25</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="T18" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>6000000</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6000000</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>5500000</v>
-      </c>
-      <c r="O12">
+      <c r="J21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21">
+        <v>5000000</v>
+      </c>
+      <c r="O21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <f t="shared" ca="1" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>5665000</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
+        <v>5000000</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="P22">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="Q22">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>8000000</v>
-      </c>
-      <c r="O14">
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23">
+        <v>3000000</v>
+      </c>
+      <c r="O23">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="P23">
         <f t="shared" ca="1" si="1"/>
-        <v>480000</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="2"/>
-        <v>8480000</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15">
-        <v>4000000</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="2"/>
-        <v>4000000</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16">
-        <v>4000000</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ca="1" si="2"/>
-        <v>4120000</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18">
-        <v>3000000</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <v>3000000</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20">
-        <v>8000000</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="1"/>
-        <v>240000</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8240000</v>
-      </c>
-      <c r="R20" s="2">
-        <f>2/8</f>
-        <v>0.25</v>
-      </c>
-      <c r="S20" s="2">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="T20" s="2">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>6000000</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" ca="1" si="2"/>
-        <v>6000000</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>111</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>112</v>
       </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" t="s">
         <v>113</v>
       </c>
-      <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
         <v>114</v>
-      </c>
-      <c r="N23">
-        <v>5000000</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5000000</v>
-      </c>
-      <c r="S23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" t="s">
-        <v>44</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2119,40 +2152,34 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N25">
         <v>3000000</v>
@@ -2169,106 +2196,55 @@
         <f t="shared" ca="1" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="Q26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27">
-        <v>3000000</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="S27" s="2">
-        <v>1</v>
+        <v>7000000</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2291,66 +2267,66 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2409,7 +2385,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -2468,7 +2444,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2527,7 +2503,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>7.0000000000000007E-2</v>
@@ -2585,8 +2561,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>137</v>
+      <c r="A6" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -2632,8 +2608,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>138</v>
+      <c r="A7" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -2691,8 +2667,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>139</v>
+      <c r="A8" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -2738,8 +2714,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>161</v>
+      <c r="A9" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -2797,8 +2773,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>159</v>
+      <c r="A10" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2856,16 +2832,16 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861ACA6-AC13-4B10-8274-1B13AE859D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9F69B-5EBD-43C7-A1F5-4188C8E282A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
     <sheet name="Chiết khấu" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lương cơ bản'!$A$1:$U$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lương cơ bản'!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
   <si>
     <t>notion id</t>
   </si>
@@ -392,16 +392,7 @@
     <t>Sang sang</t>
   </si>
   <si>
-    <t>Lương gốc</t>
-  </si>
-  <si>
-    <t>Lương thâm niên</t>
-  </si>
-  <si>
     <t>Tổng lương cơ bản</t>
-  </si>
-  <si>
-    <t>Số tháng</t>
   </si>
   <si>
     <t>Nhóm dịch vụ</t>
@@ -542,7 +533,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -550,6 +541,7 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -832,11 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P17" sqref="P17"/>
+      <selection pane="topRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,16 +846,13 @@
     <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,29 +895,20 @@
       <c r="N1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>119</v>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -953,26 +933,14 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O25" ca="1" si="0">IF(J2="", 0,DATEDIF(J2, TODAY(), "m"))</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P25" ca="1" si="1">N2*0.03*ROUNDDOWN(O2/6, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q25" ca="1" si="2">N2+P2</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1009,29 +977,17 @@
       <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>8000000</v>
       </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>960000</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="2"/>
-        <v>8960000</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1059,38 +1015,26 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>10000000</v>
       </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1500000</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="2"/>
-        <v>11500000</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="O4" s="1">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:T5" si="3">1/3</f>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:Q5" si="0">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T4" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="1">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1118,38 +1062,26 @@
       <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>9000000</v>
       </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="1"/>
-        <v>270000</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9270000</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="O5" s="1">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S5" s="1">
+      <c r="P5" s="1">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T5" s="1">
-        <f t="shared" si="3"/>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1177,35 +1109,23 @@
       <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>40000000</v>
       </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6000000</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="2"/>
-        <v>46000000</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="O6" s="1">
         <v>0.375</v>
       </c>
-      <c r="S6" s="1">
+      <c r="P6" s="1">
         <v>0.25</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Q6" s="1">
         <v>0.375</v>
       </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1239,29 +1159,17 @@
       <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>9000000</v>
       </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="1"/>
-        <v>810000</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="2"/>
-        <v>9810000</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1295,29 +1203,17 @@
       <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="N8">
-        <v>4500000</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ca="1" si="2"/>
-        <v>4500000</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N8" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1351,38 +1247,26 @@
       <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>8000000</v>
       </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="2"/>
-        <v>8000000</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="O9" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="S9" s="1">
+      <c r="P9" s="1">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Q9" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1416,29 +1300,17 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>5500000</v>
       </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="2"/>
-        <v>5665000</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1463,26 +1335,14 @@
       <c r="M11" t="s">
         <v>17</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1516,29 +1376,17 @@
       <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>8000000</v>
       </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="1"/>
-        <v>480000</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="2"/>
-        <v>8480000</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1572,29 +1420,17 @@
       <c r="M13" t="s">
         <v>17</v>
       </c>
-      <c r="N13">
-        <v>4000000</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="2"/>
-        <v>4000000</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N13" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1628,29 +1464,17 @@
       <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>4000000</v>
       </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4120000</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1678,29 +1502,17 @@
       <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="N15">
-        <v>6500000</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="1"/>
-        <v>195000</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="2"/>
-        <v>6695000</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N15" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1731,29 +1543,17 @@
       <c r="M16" t="s">
         <v>17</v>
       </c>
-      <c r="N16">
-        <v>3000000</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N16" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1787,29 +1587,17 @@
       <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="N17">
-        <v>3000000</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N17" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1837,38 +1625,26 @@
       <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="5">
         <v>8000000</v>
       </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="1"/>
-        <v>240000</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="2"/>
-        <v>8240000</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="O18" s="1">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="S18" s="1">
+      <c r="P18" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Q18" s="1">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1890,26 +1666,14 @@
       <c r="L19" t="s">
         <v>16</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1928,29 +1692,17 @@
       <c r="L20" t="s">
         <v>31</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>6000000</v>
       </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6000000</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1984,29 +1736,17 @@
       <c r="M21" t="s">
         <v>101</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>5000000</v>
       </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5000000</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2028,26 +1768,14 @@
       <c r="L22" t="s">
         <v>31</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -2081,29 +1809,17 @@
       <c r="M23" t="s">
         <v>101</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>3000000</v>
       </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -2137,26 +1853,14 @@
       <c r="M24" t="s">
         <v>114</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -2181,31 +1885,19 @@
       <c r="M25" t="s">
         <v>101</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <v>3000000</v>
       </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" ca="1" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="S25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -2214,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
@@ -2228,21 +1920,18 @@
       <c r="M26" t="s">
         <v>17</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <v>7000000</v>
       </c>
-      <c r="Q26">
-        <v>7000000</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26">
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2267,66 +1956,66 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -2385,7 +2074,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -2444,7 +2133,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2503,7 +2192,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>7.0000000000000007E-2</v>
@@ -2562,7 +2251,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -2609,7 +2298,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -2668,7 +2357,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -2715,7 +2404,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -2774,7 +2463,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9F69B-5EBD-43C7-A1F5-4188C8E282A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED266F-5ABF-4F98-964D-B6BCE8E92965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
   <si>
     <t>notion id</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Phụ cấp</t>
+  </si>
+  <si>
+    <t>Sinh hoạt tại cơ sở</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -541,7 +544,6 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -824,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R25" sqref="R25"/>
+      <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,9 +852,10 @@
     <col min="15" max="15" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +910,11 @@
       <c r="R1" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -933,14 +939,17 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -977,7 +986,7 @@
       <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
         <v>8000000</v>
       </c>
       <c r="O3" s="1">
@@ -986,8 +995,11 @@
       <c r="R3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1027,7 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4">
         <v>10000000</v>
       </c>
       <c r="O4" s="1">
@@ -1033,8 +1045,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1077,7 @@
       <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5">
         <v>9000000</v>
       </c>
       <c r="O5" s="1">
@@ -1080,8 +1095,11 @@
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1109,7 +1127,7 @@
       <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>40000000</v>
       </c>
       <c r="O6" s="1">
@@ -1124,8 +1142,11 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1159,7 +1180,7 @@
       <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
         <v>9000000</v>
       </c>
       <c r="Q7" s="1">
@@ -1168,8 +1189,11 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1203,7 +1227,7 @@
       <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
         <v>5000000</v>
       </c>
       <c r="O8" s="1">
@@ -1212,8 +1236,11 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1247,7 +1274,7 @@
       <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>8000000</v>
       </c>
       <c r="O9" s="1">
@@ -1265,8 +1292,11 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1300,7 +1330,7 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>5500000</v>
       </c>
       <c r="Q10" s="1">
@@ -1309,8 +1339,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1335,14 +1368,17 @@
       <c r="M11" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1376,7 +1412,7 @@
       <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>8000000</v>
       </c>
       <c r="P12" s="1">
@@ -1385,8 +1421,11 @@
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1420,7 +1459,7 @@
       <c r="M13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13">
         <v>5000000</v>
       </c>
       <c r="P13" s="1">
@@ -1429,8 +1468,11 @@
       <c r="R13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1464,7 +1506,7 @@
       <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14">
         <v>4000000</v>
       </c>
       <c r="Q14" s="1">
@@ -1473,8 +1515,11 @@
       <c r="R14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1502,17 +1547,20 @@
       <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>5000000</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1543,7 +1591,7 @@
       <c r="M16" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16">
         <v>4000000</v>
       </c>
       <c r="O16" s="1">
@@ -1552,8 +1600,11 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1587,7 +1638,7 @@
       <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17">
         <v>4000000</v>
       </c>
       <c r="P17" s="1">
@@ -1596,8 +1647,11 @@
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1625,7 +1679,7 @@
       <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18">
         <v>8000000</v>
       </c>
       <c r="O18" s="1">
@@ -1643,8 +1697,11 @@
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1666,14 +1723,17 @@
       <c r="L19" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1692,7 +1752,7 @@
       <c r="L20" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20">
         <v>6000000</v>
       </c>
       <c r="O20" s="1">
@@ -1701,8 +1761,11 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1736,7 +1799,7 @@
       <c r="M21" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21">
         <v>5000000</v>
       </c>
       <c r="P21" s="1">
@@ -1745,8 +1808,11 @@
       <c r="R21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1768,14 +1834,17 @@
       <c r="L22" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1809,7 +1878,7 @@
       <c r="M23" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23">
         <v>3000000</v>
       </c>
       <c r="Q23" s="1">
@@ -1818,8 +1887,11 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1853,14 +1925,17 @@
       <c r="M24" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1885,7 +1960,7 @@
       <c r="M25" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25">
         <v>3000000</v>
       </c>
       <c r="P25" s="1">
@@ -1894,8 +1969,11 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -1920,13 +1998,16 @@
       <c r="M26" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26">
         <v>7000000</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>0</v>
       </c>
     </row>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED266F-5ABF-4F98-964D-B6BCE8E92965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504389C7-37BA-4478-881B-ADFBF7034AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
@@ -826,11 +826,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T22" sqref="T22"/>
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,7 +915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1466,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1645,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -2012,7 +2013,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R26" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="LONG XUYÊN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504389C7-37BA-4478-881B-ADFBF7034AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F27693-6947-46BF-9185-0F9AED126A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
@@ -826,37 +826,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R21" sqref="R21"/>
+      <selection pane="topRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +914,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -950,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -994,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1044,13 +1043,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1094,13 +1093,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1141,13 +1140,13 @@
         <v>0.375</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1235,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1927,7 +1926,10 @@
         <v>114</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3000000</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1936,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -2013,13 +2015,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R26" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="LONG XUYÊN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2031,18 +2027,18 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="4" width="18.36328125" customWidth="1"/>
-    <col min="5" max="18" width="11.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -2101,7 +2097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2160,7 +2156,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2278,7 +2274,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -2337,7 +2333,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
@@ -2443,7 +2439,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -2490,7 +2486,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -2549,7 +2545,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
@@ -2608,16 +2604,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
   </sheetData>

--- a/Ref tính lương.xlsx
+++ b/Ref tính lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_CODING\Python\NotionAPI\git\Notion_API_with_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F27693-6947-46BF-9185-0F9AED126A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512ABD1-8FB6-403D-8250-8526714DCE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lương cơ bản" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
   <si>
     <t>notion id</t>
   </si>
@@ -489,14 +489,21 @@
   </si>
   <si>
     <t>Sinh hoạt tại cơ sở</t>
+  </si>
+  <si>
+    <t>53461489-a607-4e8c-9bb2-75d40a9def6a</t>
+  </si>
+  <si>
+    <t>Nguyễn hữu quang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -531,12 +538,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -544,8 +552,10 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -826,36 +836,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1099,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1240,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1519,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1701,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1844,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1891,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -2011,6 +2021,41 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>10000000</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0</v>
+      </c>
+      <c r="S27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2030,15 +2075,15 @@
       <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="18" width="11.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -2097,7 +2142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -2156,7 +2201,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2215,7 +2260,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2274,7 +2319,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>121</v>
       </c>
@@ -2380,7 +2425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>122</v>
       </c>
@@ -2439,7 +2484,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>123</v>
       </c>
@@ -2486,7 +2531,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -2545,7 +2590,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>143</v>
       </c>
@@ -2604,16 +2649,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
